--- a/local_cache/19G41231-ST-3-2/模具参数汇总.xlsx
+++ b/local_cache/19G41231-ST-3-2/模具参数汇总.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="管件参数" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="裁剪夹模1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="裁剪夹模2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="成型模" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="成型芯轴" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="成型退料模" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="缩管模" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="抽管芯轴" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="抽管退料模" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="裁剪夹模" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="成型模" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="成型芯轴" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="成型退料模" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="缩管模" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="抽管芯轴" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="抽管退料模" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -586,7 +585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,7 +617,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>裁剪夹模1</t>
+          <t>裁剪夹模</t>
         </is>
       </c>
     </row>
@@ -630,7 +629,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DC0121-AD030001</t>
+          <t>DC0124-AD030004</t>
         </is>
       </c>
     </row>
@@ -649,60 +648,48 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>件数</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>件数</t>
+          <t>车种规格</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19G41231-ST-3-2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>车种规格</t>
+          <t>设计者</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>19G41231-ST-3-2</t>
+          <t>刘宇</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>设计者</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>123123</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -712,137 +699,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Parameter</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>模具名称</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>裁剪夹模2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>图号</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>DC0121-AD040001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>%%CD</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>35.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>件数</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>车种规格</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>19G41231-ST-3-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>设计者</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>刘宇</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -892,7 +748,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DC0121-DIEO0001</t>
+          <t>DC0124-DIEO0004</t>
         </is>
       </c>
     </row>
@@ -1000,7 +856,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1009,7 +865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1059,7 +915,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DC0121-SS010001</t>
+          <t>DC0124-SS010004</t>
         </is>
       </c>
     </row>
@@ -1131,7 +987,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>25X25</t>
+          <t>35X35</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1035,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1188,13 +1044,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1238,79 +1094,67 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DC0121-AD020001</t>
+          <t>DC0124-AD020004</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>%%CD</t>
+          <t>%%CA</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>31.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>件数</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>件数</t>
+          <t>车种规格</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19G41231-ST-3-2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>车种规格</t>
+          <t>设计者</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>19G41231-ST-3-2</t>
+          <t>刘宇</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>设计者</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>刘宇</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1369,7 +1213,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DC0121-ADIE0001</t>
+          <t>DC0124-ADIE0004</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1321,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1536,7 +1380,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DC0121-ADBT0001</t>
+          <t>DC0124-ADBT0004</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1656,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1821,13 +1665,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1871,14 +1715,14 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DC0121-AD010001</t>
+          <t>DC0124-AD010004</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>%%CD</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -1890,60 +1734,48 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>件数</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>件数</t>
+          <t>车种规格</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19G41231-ST-3-2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>车种规格</t>
+          <t>设计者</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>19G41231-ST-3-2</t>
+          <t>刘宇</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>设计者</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>刘宇</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
